--- a/OverviewTable_v1.3.xlsx
+++ b/OverviewTable_v1.3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruben\Documents\GitHub\microCPV_review\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\norman.jost\Documents\Python Scripts\Streamlit\microCPV_review-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE40398F-A7E0-418E-B846-A6ECCB831596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCFECD3-709F-43A2-8443-A15DA09B5776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51F57CAC-0FC7-42A4-95B0-D3D0E8577477}"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="19200" windowHeight="11505" xr2:uid="{51F57CAC-0FC7-42A4-95B0-D3D0E8577477}"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="1" r:id="rId1"/>
@@ -35,28 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="147">
   <si>
     <t>X (suns)</t>
   </si>
   <si>
-    <r>
-      <t>h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (%)</t>
-    </r>
-  </si>
-  <si>
-    <t>On-axis opt. eff. (%)</t>
-  </si>
-  <si>
     <t>Cell Size (µm)</t>
   </si>
   <si>
@@ -123,18 +106,9 @@
     <t>3J micro cells on a three-axis moving plane using a ball guide which accurately position on the Petzval field projected by the single stage PMMA bi-convex optic. (Nagaoka U.)</t>
   </si>
   <si>
-    <t>3J micro cells with a tilt and roll integrated tracking using bi-convex PMMA lenses. This system is also hybrid, both parts the Si-PV and IIIV show efficiencies of 26% at equal DNI and GNI Irradiance. Losses with this concept is caused by shading. (Panasonic Boston Lab.)_</t>
-  </si>
-  <si>
-    <t>[GNNielson2013] 10.1109/PVSC.2013.6744191 [TGu2014] 10.1117/12.2062286</t>
-  </si>
-  <si>
     <t>[TGu2015] 10.1109/PVSC.2015.7356183</t>
   </si>
   <si>
-    <t>[RMBeal2011] 10.1063/1.3658335 [MSinclair2014] 10.1117/12.2062066</t>
-  </si>
-  <si>
     <t>[ARitou2016] 10.1063/1.4962103</t>
   </si>
   <si>
@@ -144,18 +118,12 @@
     <t>[DLi2018] 10.1002/pip.3034</t>
   </si>
   <si>
-    <t>[NYamada2016] 10.1002/pip.2765 [NYamada2013] 10.1109/PVSC.2013.6744197</t>
-  </si>
-  <si>
     <t>[MLumb2019] 10.1109/PVSC40753.2019.8980829</t>
   </si>
   <si>
     <t>[DSato2018] 10.1109/PVSC.2018.8547289</t>
   </si>
   <si>
-    <t>[JFMartinez2019] 10.1002/pip.3239 [JFMartinez2020]</t>
-  </si>
-  <si>
     <t>[JSPrice2017] 10.1038/nenergy.2017.113</t>
   </si>
   <si>
@@ -165,13 +133,7 @@
     <t>[AIto2018] 10.1364/OE.26.00A879</t>
   </si>
   <si>
-    <t>[XLiu2017] 10.1109/PVSC.2017.8366062 [RLeto2018] 10.1109/PVSC.2018.8548284</t>
-  </si>
-  <si>
     <t>CAP</t>
-  </si>
-  <si>
-    <t>Figure</t>
   </si>
   <si>
     <t>Technology/architecture</t>
@@ -434,40 +396,16 @@
     <t>CAP with int. tracking system</t>
   </si>
   <si>
-    <t>Acceptance Angle (°)@90%</t>
-  </si>
-  <si>
-    <t>Int. Tracking Acceptance (°)@90%</t>
-  </si>
-  <si>
-    <t>Int. Tracking range (°)@50%</t>
-  </si>
-  <si>
-    <t>[JHKarp2019] 10.1117/12.826531 [KBaker2012] 10.1117/12.929809</t>
-  </si>
-  <si>
     <t>2J micro cells with aspheric silicone microcells. The lateral displacement tracking uses actuator and a 3D guide rail for positioning in the z-axis.(GIST)</t>
   </si>
   <si>
     <t>[TLim2016] 10.1002/pip.2843</t>
   </si>
   <si>
-    <t>[HArase2014] 10.1109/JPHOTOV.2013.2292364 [OFidaner2014] 10.1063/1.4868116</t>
-  </si>
-  <si>
-    <t>[WPMulligan2000] 10.1109/PVSC.2000.916177 [ATerao2000] 10.1109/PVSC.2000.916158</t>
-  </si>
-  <si>
-    <t>[SBurroughs2010] 10.1063/1.3509179 [BFurman2010] 10.1109/PVSC.2010.5616766 [KGhosal2016] 10.1109/JPHOTOV.2016.2590884 [XSheng2014] 10.1038/NMAT3946</t>
-  </si>
-  <si>
     <t>[CJRuud2019] 10.1364/OE.27.0A1467</t>
   </si>
   <si>
     <t>[SJutteau2016] 10.1364/AO.55.006656</t>
-  </si>
-  <si>
-    <t>[NHayashi2017] 10.1063/1.500144 [NHayashi2015] 10.1364/OE.23.00A594</t>
   </si>
   <si>
     <t>[MLumb2020] 10.1117/12.2549037</t>
@@ -499,9 +437,6 @@
     <t>[JHellas2012] 10.1364/AO.51.006117</t>
   </si>
   <si>
-    <t>[VZagolla2014]</t>
-  </si>
-  <si>
     <t>Si photodetector with 2 PMMA lens arrays and a waveguide. Self-tracking using phase-change materials (Parafin) by melting and coupling the light. (Texas A&amp;M University)</t>
   </si>
   <si>
@@ -524,13 +459,64 @@
   </si>
   <si>
     <t>Group</t>
+  </si>
+  <si>
+    <t>[OFidaner2014] 10.1063/1.4868116</t>
+  </si>
+  <si>
+    <t>[ATerao2000] 10.1109/PVSC.2000.916158</t>
+  </si>
+  <si>
+    <t>[XSheng2014] 10.1038/NMAT3946</t>
+  </si>
+  <si>
+    <t>[NHayashi2017] 10.1063/1.500144</t>
+  </si>
+  <si>
+    <t>[TGu2014] 10.1117/12.2062286</t>
+  </si>
+  <si>
+    <t>[MSinclair2014] 10.1117/12.2062066</t>
+  </si>
+  <si>
+    <t>[NYamada2013] 10.1109/PVSC.2013.6744197</t>
+  </si>
+  <si>
+    <t>[JFMartinez2019] 10.1002/pip.3239</t>
+  </si>
+  <si>
+    <t>[JHKarp2019] 10.1117/12.826531</t>
+  </si>
+  <si>
+    <t>[RLeto2018] 10.1109/PVSC.2018.8548284</t>
+  </si>
+  <si>
+    <t>3J micro cells with a tilt and roll integrated tracking using bi-convex PMMA lenses. This system is also hybrid, both parts the Si-PV and IIIV show efficiencies of 26% at equal DNI and GNI Irradiance. Losses with this concept is caused by shading. (Panasonic Boston Lab.)</t>
+  </si>
+  <si>
+    <t>Int. Tracking Acceptance (°)@90%ofOptic.Eff</t>
+  </si>
+  <si>
+    <t>Int. Tracking range (°)@50%ofOptic.Eff</t>
+  </si>
+  <si>
+    <t>Acceptance Angle (°)@90%ofOptic.Eff</t>
+  </si>
+  <si>
+    <t>On-axis optic. eff. (%)</t>
+  </si>
+  <si>
+    <t>[VZagolla2014] 10.1364/OE.22.00A498</t>
+  </si>
+  <si>
+    <t>eta - elect. efficiency (%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,13 +529,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Symbol"/>
-      <family val="1"/>
-      <charset val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -785,42 +764,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -848,7 +823,7 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -889,47 +864,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
@@ -937,16 +906,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -966,57 +941,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>351858</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>482600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC62B1EE-0201-4742-B14A-A2BE0BDBDB07}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7683500" y="0"/>
-          <a:ext cx="2019300" cy="482600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1312,1126 +1238,1094 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F106E342-BE42-4CE5-81C9-473F5E64E52D}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.7109375" defaultRowHeight="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="7.7109375" style="14"/>
-    <col min="5" max="5" width="16.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="7.7109375" style="14"/>
-    <col min="10" max="10" width="21.7109375" style="14" customWidth="1"/>
-    <col min="11" max="11" width="3.28515625" style="14" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" style="14" customWidth="1"/>
-    <col min="13" max="16384" width="7.7109375" style="14"/>
+    <col min="1" max="4" width="7.7109375" style="13"/>
+    <col min="5" max="5" width="16.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="7.7109375" style="13"/>
+    <col min="10" max="10" width="21.7109375" style="13" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="13" customWidth="1"/>
+    <col min="12" max="16384" width="7.7109375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="I1" s="13" t="s">
+      <c r="K1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="L1" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
+        <v>625</v>
+      </c>
+      <c r="B2" s="15">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="15">
+        <v>500</v>
+      </c>
+      <c r="J2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15">
-        <v>625</v>
-      </c>
-      <c r="B2" s="16">
-        <v>34.700000000000003</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="16">
-        <v>500</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17">
+      <c r="K2" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16">
         <v>300</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="15">
         <v>18</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <v>86</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <v>2.6</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="17">
         <f>SQRT(A3)*SIN((PI()*D3)/(180))</f>
         <v>0.78571000223011411</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="16">
+      <c r="F3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="15">
         <v>2300</v>
       </c>
-      <c r="J3" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17">
+      <c r="J3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16">
         <v>1111</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="18">
         <v>35</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <v>80</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>0.85</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="17">
         <f>SQRT(A4)*SIN((PI()*D4)/(180))</f>
         <v>0.49446709059567756</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="16">
+      <c r="F4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="15">
         <v>600</v>
       </c>
-      <c r="J4" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17">
+      <c r="J4" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16">
         <v>18.399999999999999</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <v>25.8</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <v>65</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>9.5</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="17">
         <f>SQRT(A5)*SIN((PI()*D5)/(180))</f>
         <v>0.70797535584671678</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="16">
+      <c r="F5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="15">
         <v>650</v>
       </c>
-      <c r="J5" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
+      <c r="J5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
         <v>72</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <v>12.6</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <v>85</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <v>3.5</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="17">
         <f t="shared" ref="E6:E19" si="0">SQRT(A6)*SIN((PI()*D6)/(180))</f>
         <v>0.51801403543958802</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="16">
+      <c r="F6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="15">
         <v>54</v>
       </c>
-      <c r="J6" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17">
+      <c r="J6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
         <v>480</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="15">
         <v>30.4</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="15">
         <v>90</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="15">
         <v>1.65</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <f>SQRT(A7)*SIN((PI()*D7)/(180))</f>
         <v>0.63084388927308799</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="16">
+      <c r="F7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="15">
         <v>970</v>
       </c>
-      <c r="J7" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17">
+      <c r="J7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
         <v>36</v>
       </c>
-      <c r="B8" s="16">
-        <v>10</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="16">
+      <c r="B8" s="15">
+        <v>10</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="15">
         <v>720</v>
       </c>
-      <c r="J8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
+      <c r="J8" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
         <v>200</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="16">
+      <c r="B9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="15">
         <v>86.7</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="15">
         <v>3</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="17">
         <f t="shared" si="0"/>
         <v>0.74014219118536018</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="16">
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="15">
         <v>250</v>
       </c>
-      <c r="J9" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
+      <c r="J9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
         <v>92</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="15">
         <v>35.5</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="16">
+      <c r="C10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="15">
         <v>170</v>
       </c>
-      <c r="J10" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
+      <c r="J10" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="16">
         <v>1000</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16">
+      <c r="B11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15">
         <v>0.27</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="17">
         <f t="shared" si="0"/>
         <v>0.1490182724537385</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="15">
+        <v>5500</v>
+      </c>
+      <c r="J11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="16">
-        <v>5500</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17">
+      <c r="K11" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
         <v>275</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="15">
         <v>29.7</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="15">
         <v>90</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="15">
         <v>0.75</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="17">
         <f t="shared" si="0"/>
         <v>0.21706638583823612</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="16">
+      <c r="F12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="15">
         <v>1000</v>
       </c>
-      <c r="J12" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
+      <c r="J12" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="16">
         <v>1000</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="15">
         <v>33.4</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16">
+      <c r="C13" s="15"/>
+      <c r="D13" s="15">
         <v>0.5</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="17">
         <f t="shared" si="0"/>
         <v>0.27595728257174229</v>
       </c>
-      <c r="F13" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="16">
+      <c r="F13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="15">
         <v>600</v>
       </c>
-      <c r="J13" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16" t="s">
+      <c r="J13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="24" customFormat="1" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="20">
+        <v>400</v>
+      </c>
+      <c r="B14" s="21">
         <v>30</v>
       </c>
-      <c r="M13" s="14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="25" customFormat="1" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
-        <v>400</v>
-      </c>
-      <c r="B14" s="22">
-        <v>30</v>
-      </c>
-      <c r="C14" s="23">
+      <c r="C14" s="22">
         <v>90</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="22">
         <v>2.39</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="23">
         <f t="shared" si="0"/>
         <v>0.83402546524223165</v>
       </c>
-      <c r="F14" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="23">
+      <c r="F14" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="22">
         <v>100</v>
       </c>
-      <c r="J14" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" s="25" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17">
+      <c r="J14" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16">
         <v>100</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="15">
         <v>30.7</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="15">
         <v>87</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="15">
         <v>2</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="17">
         <f t="shared" si="0"/>
         <v>0.34899496702500971</v>
       </c>
-      <c r="F15" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="16">
+      <c r="F15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="15">
         <v>1000</v>
       </c>
-      <c r="J15" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="M15" s="14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17">
+      <c r="J15" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="16">
         <v>228</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="15">
         <v>32.700000000000003</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="15">
         <v>76</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="15">
         <v>2</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="17">
         <f t="shared" si="0"/>
         <v>0.52697084395631955</v>
       </c>
-      <c r="F16" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="16">
+      <c r="F16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="15">
         <v>250</v>
       </c>
-      <c r="J16" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="M16" s="14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17">
+      <c r="J16" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
         <v>740</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="15">
         <v>25.4</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="16">
+      <c r="C17" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="15">
         <v>170</v>
       </c>
-      <c r="J17" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17">
+      <c r="J17" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="16">
         <v>3.5</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="15">
         <v>30</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="15">
         <v>50</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="15">
         <v>60</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="17">
         <f t="shared" si="0"/>
         <v>1.6201851746019649</v>
       </c>
-      <c r="F18" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="16">
+      <c r="F18" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="15">
         <v>4000</v>
       </c>
-      <c r="J18" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="M18" s="14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17">
+      <c r="J18" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
         <v>321</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="15">
         <v>34.200000000000003</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="16">
+      <c r="C19" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="15">
         <v>0.46</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="17">
         <f t="shared" si="0"/>
         <v>0.14384111798922916</v>
       </c>
-      <c r="F19" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" s="16">
+      <c r="F19" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="15">
         <v>3000</v>
       </c>
-      <c r="J19" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="M19" s="14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" s="29" customFormat="1" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="26">
+      <c r="J19" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="28" customFormat="1" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="25">
         <v>660</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="26">
         <v>30</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="26">
         <v>93</v>
       </c>
-      <c r="D20" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="27">
+      <c r="D20" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="26">
         <v>70</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="27">
         <f>SQRT(A20)*SIN((PI()*F20)/(180))</f>
         <v>24.141140532900732</v>
       </c>
-      <c r="H20" s="28">
+      <c r="H20" s="27">
         <v>80</v>
       </c>
-      <c r="I20" s="27">
+      <c r="I20" s="26">
         <v>650</v>
       </c>
-      <c r="J20" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="M20" s="29" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17">
+      <c r="J20" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" s="28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="16">
         <v>180</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="15">
         <v>29</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="15">
         <v>82</v>
       </c>
-      <c r="D21" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="16">
+      <c r="D21" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="15">
         <v>44</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="17">
         <f>SQRT(A21)*SIN((PI()*F21)/(180))</f>
         <v>9.3198200249132981</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H21" s="15">
         <v>58</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I21" s="15">
         <v>1000</v>
       </c>
-      <c r="J21" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M21" s="30" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17">
+      <c r="J21" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="16">
         <v>300</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16">
+      <c r="B22" s="15"/>
+      <c r="C22" s="15">
         <v>81</v>
       </c>
-      <c r="D22" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="M22" s="30" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17">
+      <c r="D22" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="L22" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="16">
         <v>127</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="18">
         <v>30</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="16">
         <v>82</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="17">
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="16">
         <v>45</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="17">
         <f>SQRT(A23)*SIN((PI()*F23)/(180))</f>
         <v>7.9686887252546121</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H23" s="16">
         <v>65</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I23" s="18">
         <v>1000</v>
       </c>
-      <c r="J23" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="K23" s="20"/>
-      <c r="L23" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="M23" s="30" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17">
+      <c r="J23" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="16">
         <v>330</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="18">
         <v>26</v>
       </c>
-      <c r="C24" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" s="19">
+      <c r="C24" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="18">
         <v>550</v>
       </c>
-      <c r="J24" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="M24" s="30" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="17">
+      <c r="J24" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="L24" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="16">
         <v>8.6</v>
       </c>
-      <c r="B25" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="17">
+      <c r="B25" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="16">
         <v>80</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="17">
+      <c r="D25" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="16">
         <v>30</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="17">
         <f>SQRT(A25)*SIN((PI()*F25)/(180))</f>
         <v>1.4662878298615178</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="16">
         <v>40</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I25" s="18">
         <v>375</v>
       </c>
-      <c r="J25" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="M25" s="30" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="17">
+      <c r="J25" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="L25" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="17">
+    </row>
+    <row r="26" spans="1:12" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="16">
+        <v>128</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="16">
         <v>70</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="17">
-        <v>10</v>
-      </c>
-      <c r="G26" s="18">
+      <c r="D26" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="16">
+        <v>10</v>
+      </c>
+      <c r="G26" s="17">
         <f>SQRT(A26)*SIN((PI()*F26)/(180))</f>
         <v>1.9646048635035656</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="16">
         <v>20</v>
       </c>
-      <c r="I26" s="19"/>
-      <c r="J26" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="M26" s="30" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="17">
+      <c r="I26" s="18"/>
+      <c r="J26" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="L26" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="16">
         <v>250</v>
       </c>
-      <c r="B27" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="17">
+      <c r="B27" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="16">
         <v>79</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="17">
+      <c r="D27" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="16">
         <v>23</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="17">
         <f>SQRT(A27)*SIN((PI()*F27)/(180))</f>
         <v>6.1780015937700545</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H27" s="16">
         <v>25</v>
       </c>
-      <c r="I27" s="19"/>
-      <c r="J27" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="M27" s="30" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
+      <c r="I27" s="18"/>
+      <c r="J27" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="K27" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="L27" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="16">
         <v>250</v>
       </c>
-      <c r="B28" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="17">
+      <c r="B28" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="16">
         <v>79</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="17">
+      <c r="D28" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="16">
         <v>23</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="17">
         <f>SQRT(A28)*SIN((PI()*F28)/(180))</f>
         <v>6.1780015937700545</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="16">
         <v>25</v>
       </c>
-      <c r="I28" s="19"/>
-      <c r="J28" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="M28" s="30" t="s">
-        <v>146</v>
+      <c r="I28" s="18"/>
+      <c r="J28" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="L28" s="29" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2443,7 +2337,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.7109375" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
@@ -2457,97 +2351,97 @@
   <sheetData>
     <row r="1" spans="1:8" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="9" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
+      <c r="A3" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
     </row>
     <row r="4" spans="1:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="40" t="s">
-        <v>52</v>
+      <c r="A4" s="39" t="s">
+        <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E4" s="5">
         <v>0.8</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="41"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
@@ -2556,272 +2450,272 @@
         <v>0.75</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="42"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E6" s="5">
         <v>0.78</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E7" s="5">
         <v>0.5</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E8" s="5">
         <v>0.82</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E9" s="5">
         <v>0.9</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E10" s="5">
         <v>0.91</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E12" s="5">
         <v>0.93</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="42"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E13" s="5">
         <v>0.93</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14" s="47">
+        <v>91</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="46">
         <v>0.9</v>
       </c>
-      <c r="F14" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="49"/>
+      <c r="F14" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="48"/>
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="50"/>
+        <v>92</v>
+      </c>
+      <c r="B15" s="43"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="49"/>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="32"/>
     </row>
     <row r="17" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
+      <c r="A17" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2837,7 +2731,7 @@
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="G14:G15"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
